--- a/xlsxmaps/level_0029.xlsx
+++ b/xlsxmaps/level_0029.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E660737-63DE-4510-8AE1-A91D66A76E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681173F6-53DC-413E-99ED-21BE497CDB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1530,7 +1530,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A4:F6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1788,7 +1788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6075EFA1-413B-4502-8BDF-5EB876C98742}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
@@ -1799,7 +1801,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
       <c r="A1" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -1817,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
@@ -2046,7 +2048,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2084,10 +2086,10 @@
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -2096,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2188,10 +2190,10 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -2200,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -2305,7 +2307,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2346,19 +2348,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2450,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -2462,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -2634,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -2893,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -3178,10 +3180,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>

--- a/xlsxmaps/level_0029.xlsx
+++ b/xlsxmaps/level_0029.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681173F6-53DC-413E-99ED-21BE497CDB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE397EC-230F-4BA5-8C30-16A127FC67A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="层" sheetId="25" r:id="rId1"/>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="A1 G1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1289,13 +1289,13 @@
         <v>11000000</v>
       </c>
       <c r="C1" s="2">
-        <v>11000000</v>
+        <v>1200013</v>
       </c>
       <c r="D1" s="2">
         <v>0</v>
       </c>
       <c r="E1" s="2">
-        <v>11000000</v>
+        <v>1200013</v>
       </c>
       <c r="F1" s="2">
         <v>11000000</v>
@@ -1341,13 +1341,13 @@
         <v>11000000</v>
       </c>
       <c r="C3" s="2">
-        <v>11000000</v>
+        <v>1200013</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>11000000</v>
+        <v>1200013</v>
       </c>
       <c r="F3" s="2">
         <v>11000000</v>
@@ -1529,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2842277-178C-426E-8F96-40EA93B79A7D}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2307,7 +2307,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -3602,7 +3602,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>11000000</v>
@@ -3759,7 +3759,7 @@
         <v>11000000</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -4262,22 +4262,22 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>11000000</v>
       </c>
       <c r="C6" s="2">
-        <v>11000000</v>
+        <v>1200013</v>
       </c>
       <c r="D6" s="2">
         <v>11000000</v>
       </c>
       <c r="E6" s="2">
-        <v>11000000</v>
+        <v>1200013</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -4637,8 +4637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE281B4-3F2C-472E-BC08-17008519798E}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>11000000</v>
@@ -4795,7 +4795,7 @@
         <v>11000000</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -5156,7 +5156,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>11000000</v>
@@ -5313,7 +5313,7 @@
         <v>11000000</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>

--- a/xlsxmaps/level_0029.xlsx
+++ b/xlsxmaps/level_0029.xlsx
@@ -5,33 +5,45 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\28-37\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE397EC-230F-4BA5-8C30-16A127FC67A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE348C29-1B72-415E-9B52-78CA1AAD1A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="层" sheetId="25" r:id="rId1"/>
-    <sheet name="层 (2)" sheetId="55" r:id="rId2"/>
-    <sheet name="层 (3)" sheetId="56" r:id="rId3"/>
-    <sheet name="层 (4)" sheetId="57" r:id="rId4"/>
-    <sheet name="层 (5)" sheetId="58" r:id="rId5"/>
-    <sheet name="层 (6)" sheetId="59" r:id="rId6"/>
-    <sheet name="层 (7)" sheetId="62" r:id="rId7"/>
-    <sheet name="层 (8)" sheetId="63" r:id="rId8"/>
-    <sheet name="层 (9)" sheetId="64" r:id="rId9"/>
-    <sheet name="层 (10)" sheetId="65" r:id="rId10"/>
-    <sheet name="层 (11)" sheetId="66" r:id="rId11"/>
-    <sheet name="层 (12)" sheetId="67" r:id="rId12"/>
-    <sheet name="层 (13)" sheetId="68" r:id="rId13"/>
-    <sheet name="层 (14)" sheetId="69" r:id="rId14"/>
-    <sheet name="层 (15)" sheetId="70" r:id="rId15"/>
-    <sheet name="层 (16)" sheetId="71" r:id="rId16"/>
+    <sheet name="base" sheetId="72" r:id="rId1"/>
+    <sheet name="层" sheetId="25" r:id="rId2"/>
+    <sheet name="层 (2)" sheetId="55" r:id="rId3"/>
+    <sheet name="层 (3)" sheetId="56" r:id="rId4"/>
+    <sheet name="层 (4)" sheetId="57" r:id="rId5"/>
+    <sheet name="层 (5)" sheetId="58" r:id="rId6"/>
+    <sheet name="层 (6)" sheetId="59" r:id="rId7"/>
+    <sheet name="层 (7)" sheetId="62" r:id="rId8"/>
+    <sheet name="层 (8)" sheetId="63" r:id="rId9"/>
+    <sheet name="层 (9)" sheetId="64" r:id="rId10"/>
+    <sheet name="层 (10)" sheetId="65" r:id="rId11"/>
+    <sheet name="层 (11)" sheetId="66" r:id="rId12"/>
+    <sheet name="层 (12)" sheetId="67" r:id="rId13"/>
+    <sheet name="层 (13)" sheetId="68" r:id="rId14"/>
+    <sheet name="层 (14)" sheetId="69" r:id="rId15"/>
+    <sheet name="层 (15)" sheetId="70" r:id="rId16"/>
+    <sheet name="层 (16)" sheetId="71" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>layerlevel</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,0,0,0,0,0,0</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +110,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -106,6 +118,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1267,11 +1288,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A53DB5-534E-4AAC-B628-AEAD956AE8C4}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B7DF7E-0952-41AA-9706-50D1D9108B1A}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1283,25 +1404,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
       <c r="A1" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>1200013</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2">
         <v>0</v>
       </c>
       <c r="E1" s="2">
-        <v>1200013</v>
+        <v>0</v>
       </c>
       <c r="F1" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="G1" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
@@ -1312,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1324,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1335,25 +1456,25 @@
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>1200013</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>1200013</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1416,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1525,7 +1646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2842277-178C-426E-8F96-40EA93B79A7D}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -1784,7 +1905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6075EFA1-413B-4502-8BDF-5EB876C98742}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2043,7 +2164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F722BA-437D-46C6-8F80-59B0D600A926}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2302,7 +2423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62514AC5-64F3-449F-AD12-927177FC09DD}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2561,7 +2682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B10B3B-C7CC-4376-98A6-6FE1FCA0BC50}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2820,12 +2941,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B53FCF-2438-4B0D-A255-EE68AE9E078F}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -3079,7 +3200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655C4E55-BB4C-44CD-81B5-791F4EF9CCEF}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -3339,6 +3460,265 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="B1" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="C1" s="2">
+        <v>12000013</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>12000013</v>
+      </c>
+      <c r="F1" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="G1" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12000013</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12000013</v>
+      </c>
+      <c r="F3" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3696DB0-7A8C-497C-90FD-86688DA1382F}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -3597,7 +3977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01DCB00-9CDF-4E08-B131-0C63335D0563}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -3856,7 +4236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18014C58-377C-4889-9C4A-EFB1DD114C69}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -4115,12 +4495,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F2C729-1956-4E21-AAEF-F65168CE7A13}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -4268,13 +4648,13 @@
         <v>11000000</v>
       </c>
       <c r="C6" s="2">
-        <v>1200013</v>
+        <v>12000013</v>
       </c>
       <c r="D6" s="2">
         <v>11000000</v>
       </c>
       <c r="E6" s="2">
-        <v>1200013</v>
+        <v>12000013</v>
       </c>
       <c r="F6" s="2">
         <v>11000000</v>
@@ -4374,7 +4754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ED1227-7749-4A5B-867C-368FE4E864C0}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -4633,11 +5013,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE281B4-3F2C-472E-BC08-17008519798E}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
@@ -4892,7 +5272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1098F1BA-EB61-4C0E-93BE-D988C9F3EC98}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -5149,263 +5529,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B7DF7E-0952-41AA-9706-50D1D9108B1A}">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="16.28515625" style="1"/>
-    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="D6" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>